--- a/xb4/Scurve/Traj/J2_B/运动轨迹表_J2 B.xlsx
+++ b/xb4/Scurve/Traj/J2_B/运动轨迹表_J2 B.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>J3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>traj_49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>traj_50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>traj_53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>traj_54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,34 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>traj_57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traj_63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>traj_91</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +146,18 @@
   </si>
   <si>
     <t>traj_165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traj_170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traj_174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traj_178</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,10 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +534,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +549,7 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9" t="s">
@@ -603,10 +579,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -614,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -655,7 +631,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="7">
@@ -665,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -704,7 +680,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7">
@@ -714,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -753,7 +729,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="7">
@@ -763,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -802,7 +778,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="7">
@@ -812,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -853,7 +829,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="7">
@@ -863,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -912,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -961,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1000,7 +976,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="7">
@@ -1010,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1059,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1088,9 +1064,15 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
+      <c r="O11" s="5">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -1104,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1133,9 +1115,13 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5">
+        <v>40</v>
+      </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -1149,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1178,9 +1164,13 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5">
+        <v>60</v>
+      </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -1194,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1223,13 +1213,17 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="5">
+        <v>70</v>
+      </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="5">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="7">
@@ -1239,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1268,13 +1262,17 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5">
+        <v>90</v>
+      </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="7">
@@ -1284,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1313,13 +1311,19 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="O16" s="5">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="7">
@@ -1329,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1358,13 +1362,17 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5">
+        <v>50</v>
+      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="7">
@@ -1374,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1403,13 +1411,17 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="5">
+        <v>70</v>
+      </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="7">
@@ -1419,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1448,13 +1460,17 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5">
+        <v>80</v>
+      </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="7">
@@ -1464,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1493,13 +1509,19 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
+      <c r="O20" s="5">
+        <v>40</v>
+      </c>
+      <c r="P20" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="7">
@@ -1509,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1538,13 +1560,17 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="O21" s="5">
+        <v>60</v>
+      </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="5">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="7">
@@ -1554,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1583,13 +1609,17 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5">
+        <v>70</v>
+      </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
+      <c r="A23" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="7">
@@ -1599,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1628,276 +1658,124 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="5">
+        <v>80</v>
+      </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="5"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="5"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="5"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="5"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="5"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="5"/>
@@ -2017,8 +1895,8 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>36</v>
+      <c r="A36" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="2"/>
@@ -2550,16 +2428,150 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2572,150 +2584,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
